--- a/resources/experiment 2/metrics/R2/average time/Infarto de Miocardio.xlsx
+++ b/resources/experiment 2/metrics/R2/average time/Infarto de Miocardio.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8809126784011836</v>
+        <v>0.8809126784011837</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8809126784011836</v>
+        <v>0.8809126784011837</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8809126784011836</v>
+        <v>0.8809126784011837</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9125346886196101</v>
+        <v>0.9953458024937243</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9125346886196101</v>
+        <v>0.9953147547573437</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9125346886196101</v>
+        <v>0.9894989695990718</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9919607090504505</v>
+        <v>0.9892667809184853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9919607090504505</v>
+        <v>0.9897283990674534</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9919607090504505</v>
+        <v>0.9661132147163253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8396574297494349</v>
+        <v>0.9982001395604766</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8396574297494349</v>
+        <v>0.9981167489816167</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8396574297494349</v>
+        <v>0.9975461422772799</v>
       </c>
     </row>
   </sheetData>
